--- a/biology/Mycologie/Lactarius_aurantiacus/Lactarius_aurantiacus.xlsx
+++ b/biology/Mycologie/Lactarius_aurantiacus/Lactarius_aurantiacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lactarius aurantiacus, parfois appelé lactaire orangé[3], lactaire doux[3] ou lactaire très doux[4],[5] est une espèce de champignons de la famille des Russulaceae. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lactarius aurantiacus, parfois appelé lactaire orangé, lactaire doux ou lactaire très doux, est une espèce de champignons de la famille des Russulaceae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chapeau est globalement orange (de jaune orangé à roux orangé) et produit un lait blanc et doux. Sa surface lisse, de forme convexe légèrement déprimé, présente parfois un mamelon en son centre. Ce chapeau mesure de 2 à 6 cm de diamètre[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau est globalement orange (de jaune orangé à roux orangé) et produit un lait blanc et doux. Sa surface lisse, de forme convexe légèrement déprimé, présente parfois un mamelon en son centre. Ce chapeau mesure de 2 à 6 cm de diamètre.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,7 +612,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Lactarius aurantiacus est non comestible.
 </t>
